--- a/Confidence+intervals.+Two+means.+Dependent-Solution.xlsx
+++ b/Confidence+intervals.+Two+means.+Dependent-Solution.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F249DE-6148-473B-BA54-127FD760E695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809C2AC3-BBCE-4DCC-A304-DAFBA8366C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,9 +118,6 @@
     <t>Task 4:</t>
   </si>
   <si>
-    <t>Optional</t>
-  </si>
-  <si>
     <t xml:space="preserve">You can try to calculate the 90% and 99% confidence intervals to see the difference. There is no solution provided for these cases. </t>
   </si>
   <si>
@@ -153,6 +150,9 @@
       </rPr>
       <t>9,0.025</t>
     </r>
+  </si>
+  <si>
+    <t>Optional1</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -661,10 +661,10 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -680,10 +680,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>5</v>
@@ -789,7 +789,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L17" s="13">
         <v>2.2599999999999998</v>
@@ -982,7 +982,7 @@
         <v>28</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -1011,7 +1011,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="G26" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
